--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2101876.224996143</v>
+        <v>-2104357.144821602</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.41900355657543</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>69.80147229673702</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>114.783478545074</v>
       </c>
       <c r="F13" t="n">
-        <v>21.90971209565801</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271168</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>336.515625110563</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T14" t="n">
-        <v>117.1645070327095</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>39.32004733647285</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271168</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292092</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>6.693342143988119</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>271.622257617108</v>
       </c>
       <c r="C17" t="n">
-        <v>289.4537863070918</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>109.3132240708317</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>97.90474570419589</v>
       </c>
       <c r="W20" t="n">
         <v>275.345685511694</v>
@@ -2147,7 +2147,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>93.35153789290881</v>
       </c>
       <c r="D22" t="n">
-        <v>137.1198840074565</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E22" t="n">
         <v>72.53867944085015</v>
@@ -2299,7 +2299,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258353</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2488,7 +2488,7 @@
         <v>71.52576481721222</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>154.5302192482723</v>
       </c>
       <c r="H25" t="n">
         <v>70.85973170860176</v>
@@ -2533,7 +2533,7 @@
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>240.642054313072</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
         <v>212.627715130872</v>
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2792,7 +2792,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020903</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2069382643931</v>
+        <v>42.20693826439375</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>42.20693826439305</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
-        <v>164.0711673124584</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092329</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.20693826439391</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>165.4034671307239</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239899</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>89.94326605922028</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621585</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>135.6235431859976</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1498.714766761814</v>
+        <v>1823.749336508872</v>
       </c>
       <c r="C11" t="n">
-        <v>1156.944317081126</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="D11" t="n">
-        <v>825.8706857340992</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E11" t="n">
-        <v>739.5888639597799</v>
+        <v>1123.382701489663</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>739.5888639597798</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299101</v>
+        <v>81.3169479329909</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3255.0992839357</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3076.313603579645</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2849.975194113205</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2546.104374029358</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479258</v>
+        <v>2546.104374029358</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.662031477902</v>
+        <v>2546.104374029358</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.714766761814</v>
+        <v>2183.15710931327</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609368</v>
+        <v>773.5665187697462</v>
       </c>
       <c r="C13" t="n">
-        <v>418.3126375609368</v>
+        <v>631.8224031015629</v>
       </c>
       <c r="D13" t="n">
-        <v>418.3126375609368</v>
+        <v>631.8224031015629</v>
       </c>
       <c r="E13" t="n">
-        <v>418.3126375609368</v>
+        <v>515.8794954802761</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>396.1816152420895</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5200,7 +5200,7 @@
         <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402571</v>
@@ -5236,13 +5236,13 @@
         <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535532</v>
+        <v>967.1670306535525</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152594</v>
+        <v>967.1670306535525</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314529</v>
+        <v>773.5665187697462</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.052518175211</v>
+        <v>1808.944505008065</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>724.7840324589722</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645003</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299104</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3207.257834707445</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3207.257834707445</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>3207.257834707445</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="W14" t="n">
-        <v>2881.681246697054</v>
+        <v>2511.806542563106</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.407555695698</v>
+        <v>2511.806542563106</v>
       </c>
       <c r="Y14" t="n">
-        <v>2172.460290979609</v>
+        <v>2148.859277847017</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609358</v>
+        <v>901.2692096237417</v>
       </c>
       <c r="C16" t="n">
-        <v>418.3126375609358</v>
+        <v>759.5250939555585</v>
       </c>
       <c r="D16" t="n">
-        <v>295.3880654083237</v>
+        <v>636.6005218029464</v>
       </c>
       <c r="E16" t="n">
-        <v>295.3880654083237</v>
+        <v>515.879495480277</v>
       </c>
       <c r="F16" t="n">
-        <v>255.670845876533</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H16" t="n">
         <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1450.123602716358</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535518</v>
+        <v>1450.123602716358</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152583</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314518</v>
+        <v>1055.725607194258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1853.377083860393</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
         <v>1560.999521934037</v>
@@ -5498,10 +5498,10 @@
         <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446364</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.380997682823</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2758.959810547049</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.832855484732</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2480.832855484732</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.335223716717</v>
+        <v>2129.68625545161</v>
       </c>
     </row>
     <row r="18">
@@ -5735,13 +5735,13 @@
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5780,22 +5780,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3179.539455292718</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3000.650678774351</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V20" t="n">
-        <v>2744.229491638577</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W20" t="n">
-        <v>2466.10253657626</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X20" t="n">
-        <v>2167.278478522977</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522977</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671185</v>
       </c>
       <c r="D22" t="n">
         <v>399.3523570625798</v>
@@ -5947,13 +5947,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="23">
@@ -5972,46 +5972,46 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349353</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531248</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018608</v>
       </c>
       <c r="K23" t="n">
-        <v>613.9118195062365</v>
+        <v>763.4819084917074</v>
       </c>
       <c r="L23" t="n">
-        <v>1064.946032754645</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1598.47793742657</v>
+        <v>1748.048026412041</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.256754485352</v>
+        <v>2294.826843470823</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.229225364689</v>
+        <v>2797.79931435016</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3192.573680707338</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
@@ -6023,16 +6023,16 @@
         <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>639.0174115138539</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>544.7229287937439</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>469.2479895892052</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>395.9765962146091</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>323.7283489244957</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.06173179634004</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6181,16 +6181,16 @@
         <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>892.1750550720296</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>746.0241761362965</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1561.793016801445</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.303399835339</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277654</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641921</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,13 +6403,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659143</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.30339983534</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424368</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6491,22 +6491,22 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
         <v>100.1542084951516</v>
@@ -6540,40 +6540,40 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6628,25 +6628,25 @@
         <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,22 +6698,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N32" t="n">
-        <v>2548.674958929623</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3051.64742980896</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
         <v>3750.042416521973</v>
@@ -6731,10 +6731,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6895,13 +6895,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464976</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810562</v>
@@ -6944,7 +6944,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
@@ -6965,13 +6965,13 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049858</v>
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127572</v>
+        <v>740.9069705127578</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848503</v>
+        <v>670.6422221586943</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463579</v>
+        <v>619.1970173202019</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639648</v>
+        <v>569.9553583116522</v>
       </c>
       <c r="F37" t="n">
-        <v>225.7225416660545</v>
+        <v>423.0654108137418</v>
       </c>
       <c r="G37" t="n">
-        <v>156.6911396146168</v>
+        <v>255.3625741884607</v>
       </c>
       <c r="H37" t="n">
-        <v>109.1453874063179</v>
+        <v>109.1453874063185</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388403</v>
+        <v>946.0051453388409</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691535</v>
+        <v>823.8840007691541</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7202,7 +7202,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647791</v>
+        <v>740.9069705127572</v>
       </c>
       <c r="C40" t="n">
-        <v>430.6660820368722</v>
+        <v>571.9707875848503</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>421.8541481725146</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>273.9410545901214</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>225.7225416660544</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>156.6911396146167</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>109.1453874063178</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1668.551646658397</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357883</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.10716072584</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1131.361425262723</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>1002.043308938549</v>
+        <v>946.0051453388403</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.2507297950189</v>
+        <v>823.8840007691535</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228008</v>
@@ -7494,7 +7494,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>598.2565075725909</v>
       </c>
       <c r="C43" t="n">
-        <v>331.994647463029</v>
+        <v>527.9917592185272</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>476.5465543800349</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>427.3048953714851</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>379.086382447418</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>211.383545822137</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1884.661277114358</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.646827515027</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1569.880212084553</v>
+        <v>1667.205889266209</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210197</v>
+        <v>1378.103022391852</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578153</v>
+        <v>1123.418534185965</v>
       </c>
       <c r="W43" t="n">
-        <v>835.3471215411929</v>
+        <v>932.672798722848</v>
       </c>
       <c r="X43" t="n">
-        <v>706.0290052170189</v>
+        <v>803.354682398674</v>
       </c>
       <c r="Y43" t="n">
-        <v>583.9078606473322</v>
+        <v>681.2335378289872</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7676,22 +7676,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389146</v>
+        <v>795.5993767202773</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848511</v>
+        <v>725.3346283662138</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463587</v>
+        <v>673.8894235277214</v>
       </c>
       <c r="E46" t="n">
-        <v>372.6124891639656</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657633</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1790.301070122839</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1667.205889266208</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1476.774456965695</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1320.761403333652</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>1130.015667870534</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388411</v>
+        <v>1000.69755154636</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.212566195311</v>
+        <v>878.5764069766736</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430632</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729009</v>
+        <v>184.4039433729013</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389605</v>
+        <v>191.494890938961</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333069</v>
+        <v>181.0856325333074</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830242</v>
+        <v>179.3553748830248</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383992</v>
+        <v>182.8301554383997</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586586</v>
+        <v>190.8908035586591</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266125</v>
+        <v>192.0103836266128</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875974</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372534</v>
+        <v>113.6031223372537</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672275</v>
+        <v>105.9629718672278</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253594</v>
+        <v>104.1013981253599</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677666</v>
+        <v>92.30246558677712</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359737</v>
+        <v>106.8829608359741</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798325</v>
+        <v>105.3113487798328</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615458</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564658</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085228</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140778</v>
+        <v>108.4284123140781</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530927</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>18.01571720695171</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>105.0013903333774</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>187.8883066283051</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>343.5485285966286</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>343.5485285966295</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544125</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>105.7385611944685</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>306.6874953089243</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>269.59121992856</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>12.46614290431233</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>4.730337514368657</v>
       </c>
       <c r="F13" t="n">
-        <v>96.59118934014683</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>19.29806996579112</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104942</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59.83331651978419</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>79.18085409933198</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>218.5241545927134</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>37.21630084065357</v>
       </c>
       <c r="C17" t="n">
-        <v>1.923822258196708</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>20.70946286306946</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>155.95222956022</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1284058.137259717</v>
+        <v>1284058.137259718</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>122891.4508075558</v>
+      </c>
+      <c r="C2" t="n">
         <v>122891.4508075557</v>
-      </c>
-      <c r="C2" t="n">
-        <v>122891.4508075558</v>
       </c>
       <c r="D2" t="n">
         <v>122894.8004708919</v>
       </c>
       <c r="E2" t="n">
-        <v>109431.0001357461</v>
+        <v>109431.0001357462</v>
       </c>
       <c r="F2" t="n">
-        <v>109431.0001357461</v>
+        <v>109431.0001357462</v>
       </c>
       <c r="G2" t="n">
         <v>119179.6231869804</v>
       </c>
       <c r="H2" t="n">
-        <v>119179.6231869804</v>
+        <v>119179.6231869805</v>
       </c>
       <c r="I2" t="n">
         <v>123156.2654796425</v>
@@ -26338,16 +26338,16 @@
         <v>123156.2654796423</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796426</v>
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552266</v>
+        <v>59764.55367552197</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983372</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179683</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,13 +26421,13 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434264</v>
+        <v>435086.1724434266</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866204</v>
+        <v>40634.1059086621</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866204</v>
+        <v>40634.10590866207</v>
       </c>
       <c r="G4" t="n">
         <v>77662.2662701043</v>
@@ -26436,25 +26436,25 @@
         <v>77662.2662701043</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.68494905924</v>
+        <v>91903.68494905921</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462824</v>
+        <v>91012.35309462823</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462828</v>
+        <v>91012.3530946282</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462823</v>
+        <v>91012.35309462827</v>
       </c>
       <c r="M4" t="n">
+        <v>92793.842883194</v>
+      </c>
+      <c r="N4" t="n">
         <v>92793.84288319398</v>
       </c>
-      <c r="N4" t="n">
-        <v>92793.84288319401</v>
-      </c>
       <c r="O4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="P4" t="n">
         <v>92793.84288319401</v>
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624987</v>
       </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
-      </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368511.5100179818</v>
+        <v>-368515.9235958498</v>
       </c>
       <c r="C6" t="n">
-        <v>-368511.5100179817</v>
+        <v>-368515.9235958498</v>
       </c>
       <c r="D6" t="n">
-        <v>-407104.8310799234</v>
+        <v>-407109.1888300689</v>
       </c>
       <c r="E6" t="n">
-        <v>-1097011.568301375</v>
+        <v>-1097240.322723774</v>
       </c>
       <c r="F6" t="n">
-        <v>-7772.596137742366</v>
+        <v>-8001.35056014052</v>
       </c>
       <c r="G6" t="n">
-        <v>-76581.39550321283</v>
+        <v>-76647.67287475721</v>
       </c>
       <c r="H6" t="n">
-        <v>-39001.28620833874</v>
+        <v>-39067.5635798831</v>
       </c>
       <c r="I6" t="n">
-        <v>-77305.41560109257</v>
+        <v>-77305.41560109248</v>
       </c>
       <c r="J6" t="n">
-        <v>-82643.46231158884</v>
+        <v>-82643.462311589</v>
       </c>
       <c r="K6" t="n">
-        <v>-57234.02928979207</v>
+        <v>-57234.02928979196</v>
       </c>
       <c r="L6" t="n">
-        <v>-94814.13858466598</v>
+        <v>-94814.13858466603</v>
       </c>
       <c r="M6" t="n">
-        <v>-254324.2747025256</v>
+        <v>-254324.2747025255</v>
       </c>
       <c r="N6" t="n">
-        <v>-52156.1747098014</v>
+        <v>-52156.17470980123</v>
       </c>
       <c r="O6" t="n">
         <v>-52156.1747098013</v>
       </c>
       <c r="P6" t="n">
-        <v>-52156.1747098013</v>
+        <v>-52156.17470980139</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571902</v>
@@ -26707,25 +26707,25 @@
         <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810492</v>
+      </c>
+      <c r="N2" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="P2" t="n">
         <v>97.68472022810496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810494</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790626</v>
+        <v>69.78465283790547</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951234</v>
+        <v>50.70958360951235</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790626</v>
+        <v>69.78465283790547</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758417</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780175</v>
+        <v>132.2465643780177</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672107</v>
+        <v>84.22861846672113</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698752</v>
+        <v>90.8382912698753</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519086</v>
+        <v>84.46220888519096</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990364</v>
+        <v>7.64903505099053</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317054</v>
+        <v>75.62456067317066</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="17">
@@ -28962,7 +28962,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49558901075588</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E22" t="n">
         <v>73.89528320571902</v>
@@ -29019,7 +29019,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="X22" t="n">
         <v>73.89528320571902</v>
@@ -29208,7 +29208,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="H25" t="n">
         <v>73.89528320571902</v>
@@ -29253,7 +29253,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="V25" t="n">
-        <v>11.49558901075596</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W25" t="n">
         <v>73.89528320571902</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N31" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="O31" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="P31" t="n">
         <v>46.97513661859114</v>
       </c>
-      <c r="N31" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="O31" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="P31" t="n">
-        <v>46.97513661859261</v>
-      </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>54.14548214544499</v>
+        <v>54.14548214544434</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -30387,19 +30387,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544504</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>55.47778196371081</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.72521440565342</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>54.14548214544533</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>55.47778196371097</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>54.14548214544428</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413315</v>
+        <v>0.2805413179413283</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366662</v>
+        <v>2.873093772366629</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993319</v>
+        <v>10.81556915993307</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362311</v>
+        <v>23.81059368362283</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207968</v>
+        <v>35.68590767207927</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102671</v>
+        <v>44.2715240310262</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396586</v>
+        <v>49.2606006939653</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356668</v>
+        <v>50.0576887135661</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328755</v>
+        <v>47.26805598328701</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661093</v>
+        <v>40.34219219661047</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783698</v>
+        <v>30.29530624783664</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313218</v>
+        <v>17.62255356313198</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588099</v>
+        <v>6.392835282588025</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288179</v>
+        <v>1.228069619288165</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530652</v>
+        <v>0.02244330543530626</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796475</v>
+        <v>0.1501028381796457</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840279</v>
+        <v>1.449677410840263</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694002</v>
+        <v>5.168014384693944</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906924</v>
+        <v>14.18142647906908</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710562</v>
+        <v>24.23831663710534</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126467</v>
+        <v>32.59140791264632</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665891</v>
+        <v>38.03263579665848</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655664</v>
+        <v>39.0392464965562</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847077</v>
+        <v>35.71328360847036</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449777</v>
+        <v>28.66305863449744</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.1604956244757</v>
+        <v>19.16049562447548</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767939</v>
+        <v>9.319542882767832</v>
       </c>
       <c r="S9" t="n">
-        <v>2.7880943846088</v>
+        <v>2.788094384608768</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890173</v>
+        <v>0.6050197731890105</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00987518672234523</v>
+        <v>0.009875186722345117</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486834</v>
+        <v>0.125841177248682</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811022</v>
+        <v>1.11884246681101</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307859</v>
+        <v>3.784387403078547</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481917</v>
+        <v>8.896971231481816</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489249</v>
+        <v>14.62045677489232</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477245</v>
+        <v>18.70915102477223</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908225</v>
+        <v>19.72617653908203</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115536</v>
+        <v>19.25713215115514</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875028</v>
+        <v>17.78707839875008</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287712</v>
+        <v>15.21991838287695</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852385</v>
+        <v>10.53748257852373</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338171</v>
+        <v>5.658276933381645</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233873</v>
+        <v>2.193068516233848</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625563</v>
+        <v>0.5376850300625501</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564558</v>
+        <v>0.00686406421356448</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
         <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>355.2070037623522</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>355.7956951370969</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>643.4784210206373</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>895.85036400954</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,16 +36762,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>882.4696444268562</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737845</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36993,10 +36993,10 @@
         <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M31" t="n">
-        <v>394.608516012075</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861327</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637016</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564863</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>658.04039660738</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>705.4494815282961</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
